--- a/storage/app/xlsx/seed_cidades_ms.xlsx
+++ b/storage/app/xlsx/seed_cidades_ms.xlsx
@@ -23,7 +23,7 @@
     <t>ÁGUA-CLARENSE</t>
   </si>
   <si>
-    <t>83155ff3-60a0-480e-bf62-ceabf4ef239a</t>
+    <t>61f4e65d-5225-4ada-90bb-b71f3d6518ae</t>
   </si>
   <si>
     <t>ALCINÓPOLIS</t>

--- a/storage/app/xlsx/seed_cidades_ms.xlsx
+++ b/storage/app/xlsx/seed_cidades_ms.xlsx
@@ -23,7 +23,7 @@
     <t>ÁGUA-CLARENSE</t>
   </si>
   <si>
-    <t>61f4e65d-5225-4ada-90bb-b71f3d6518ae</t>
+    <t>6d6f660e-8173-4a46-8cf3-74d2588aa715</t>
   </si>
   <si>
     <t>ALCINÓPOLIS</t>

--- a/storage/app/xlsx/seed_cidades_ms.xlsx
+++ b/storage/app/xlsx/seed_cidades_ms.xlsx
@@ -23,7 +23,7 @@
     <t>ÁGUA-CLARENSE</t>
   </si>
   <si>
-    <t>6d6f660e-8173-4a46-8cf3-74d2588aa715</t>
+    <t>bd3b7037-afd5-45d9-9309-83d2afdfbf54</t>
   </si>
   <si>
     <t>ALCINÓPOLIS</t>

--- a/storage/app/xlsx/seed_cidades_ms.xlsx
+++ b/storage/app/xlsx/seed_cidades_ms.xlsx
@@ -23,7 +23,7 @@
     <t>ÁGUA-CLARENSE</t>
   </si>
   <si>
-    <t>bd3b7037-afd5-45d9-9309-83d2afdfbf54</t>
+    <t>4adf6d03-a552-4ae6-b39a-2bdc3bb409bc</t>
   </si>
   <si>
     <t>ALCINÓPOLIS</t>

--- a/storage/app/xlsx/seed_cidades_ms.xlsx
+++ b/storage/app/xlsx/seed_cidades_ms.xlsx
@@ -23,7 +23,7 @@
     <t>ÁGUA-CLARENSE</t>
   </si>
   <si>
-    <t>4adf6d03-a552-4ae6-b39a-2bdc3bb409bc</t>
+    <t>b6b69b16-e242-463b-9f8a-49149fcb0fc0</t>
   </si>
   <si>
     <t>ALCINÓPOLIS</t>

--- a/storage/app/xlsx/seed_cidades_ms.xlsx
+++ b/storage/app/xlsx/seed_cidades_ms.xlsx
@@ -23,7 +23,7 @@
     <t>ÁGUA-CLARENSE</t>
   </si>
   <si>
-    <t>b6b69b16-e242-463b-9f8a-49149fcb0fc0</t>
+    <t>405e2804-2d33-49a8-b76f-18ebdee7e89a</t>
   </si>
   <si>
     <t>ALCINÓPOLIS</t>
